--- a/outputs-GTDB-r202/p__Proteobacteria.xlsx
+++ b/outputs-GTDB-r202/p__Proteobacteria.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>c__Alphaproteobacteria</t>
+          <t>c__Alphaproteobacteria(reject)</t>
         </is>
       </c>
     </row>
